--- a/artfynd/A 27617-2020.xlsx
+++ b/artfynd/A 27617-2020.xlsx
@@ -1226,10 +1226,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>573378.2006883519</v>
+        <v>573378</v>
       </c>
       <c r="R6" t="n">
-        <v>6770759.092267969</v>
+        <v>6770759</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1259,19 +1259,9 @@
           <t>2023-08-21</t>
         </is>
       </c>
-      <c r="Z6" t="inlineStr">
-        <is>
-          <t>00:00</t>
-        </is>
-      </c>
       <c r="AA6" t="inlineStr">
         <is>
           <t>2023-08-21</t>
-        </is>
-      </c>
-      <c r="AB6" t="inlineStr">
-        <is>
-          <t>00:00</t>
         </is>
       </c>
       <c r="AC6" t="inlineStr">
